--- a/DAY_04/행정구역시도별성별인구수.xlsx
+++ b/DAY_04/행정구역시도별성별인구수.xlsx
@@ -3614,10 +3614,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>259</v>
+        <v>4</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>260</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>261</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>263</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>265</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>267</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>269</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>271</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>273</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>275</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>277</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>279</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>281</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>283</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>285</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>287</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>289</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>291</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>293</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="2" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>295</v>
